--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/131.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BAD97A-2538-4DF0-B0D8-B45DBC35675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D4E46-B79C-4A27-8F48-69C319CF1F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1448,6 +1448,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>320</v>
+      </c>
       <c r="L2">
         <v>500</v>
       </c>
